--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1046.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1046.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.187804707586414</v>
+        <v>1.100489020347595</v>
       </c>
       <c r="B1">
-        <v>2.494443284772963</v>
+        <v>1.650554180145264</v>
       </c>
       <c r="C1">
-        <v>2.134932621681056</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.868471575092206</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.526399884851007</v>
+        <v>1.13616669178009</v>
       </c>
     </row>
   </sheetData>
